--- a/待开发特性列表.xlsx
+++ b/待开发特性列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>特性描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,79 +54,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>基本功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动判负，将（帅）没有没吃前被将死。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走棋音效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑AI。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络对战。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对战时，和棋需要对方同意。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走棋计时。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面改版升级，美化对话框。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一时间只允许启动一个Application。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前进展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极限情况（长将，常抓，一局棋超过X步）的判负、判和。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走棋双方头像在界面上显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构（梳理代码结构）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>内存泄漏检查，bug修改。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基本功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动判负，将（帅）没有没吃前被将死。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走棋音效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电脑AI。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络对战。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对战时，和棋需要对方同意。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走棋计时。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面改版升级，美化对话框。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一时间只允许启动一个Application。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前进展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极限情况（长将，常抓，一局棋超过X步）的判负、判和。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走棋双方头像在界面上显示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构（梳理代码结构）</t>
+    <t>v1.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCLint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -522,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -535,13 +547,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
@@ -549,10 +561,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
@@ -560,10 +572,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
@@ -577,106 +589,112 @@
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
@@ -709,13 +727,18 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
